--- a/Tool/excel_to_lua/fish.xlsx
+++ b/Tool/excel_to_lua/fish.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,35 +74,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随碟附送的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>565</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电饭锅</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发个非官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_4.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_5.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_6.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish/fish_7.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,9 +152,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,17 +451,20 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -485,8 +487,8 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>123</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,23 +496,23 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -518,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -526,15 +528,15 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tool/excel_to_lua/fish.xlsx
+++ b/Tool/excel_to_lua/fish.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,37 @@
   </si>
   <si>
     <t>Fish/fish_7.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,100 +479,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>